--- a/Llama2/sample_output.xlsx
+++ b/Llama2/sample_output.xlsx
@@ -3695,74 +3695,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A42:E45"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="42" spans="1:5">
-      <c r="B42" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C2" t="s">
         <v>309</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D2" t="s">
         <v>312</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C3" t="s">
         <v>310</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D3" t="s">
         <v>313</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C4" t="s">
         <v>311</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D4" t="s">
         <v>314</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E4" t="s">
         <v>317</v>
       </c>
     </row>

--- a/Llama2/sample_output.xlsx
+++ b/Llama2/sample_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/EFE-Project/Llama2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39D0078-7C6D-FB40-9868-0206195C3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B37BE-B342-D446-AB5F-E77F75F00D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Morgan_Stanley" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="294">
   <si>
     <t>Quarters</t>
   </si>
@@ -899,25 +899,10 @@
     <t>79.4</t>
   </si>
   <si>
-    <t>277.2</t>
-  </si>
-  <si>
     <t>405.6</t>
   </si>
   <si>
-    <t>268.5</t>
-  </si>
-  <si>
     <t>64.3</t>
-  </si>
-  <si>
-    <t>302.9</t>
-  </si>
-  <si>
-    <t>188.3</t>
-  </si>
-  <si>
-    <t>232.2</t>
   </si>
   <si>
     <t>55.1</t>
@@ -979,11 +964,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,11 +1276,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3286,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3344,16 +3335,16 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3364,17 +3355,17 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2">
+        <v>128.4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3384,17 +3375,17 @@
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" t="s">
-        <v>298</v>
+      <c r="C5" s="2">
+        <v>114.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>379.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
